--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/HOR_CAT_HORAS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/HOR_CAT_HORAS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>IDHORA</t>
   </si>
@@ -36,144 +36,6 @@
   </si>
   <si>
     <t>DESCRIPCION</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>8:00 am - 9:30 am</t>
-  </si>
-  <si>
-    <t>Jan 21 2016  8:00AM</t>
-  </si>
-  <si>
-    <t>Jan 21 2016  9:30AM</t>
-  </si>
-  <si>
-    <t>Primera Hora</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>9:30 am - 10:00 am</t>
-  </si>
-  <si>
-    <t>Jan 22 2016  9:30AM</t>
-  </si>
-  <si>
-    <t>Jan 22 2016 10:00AM</t>
-  </si>
-  <si>
-    <t>Segunda Hora</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>10:00 am - 10:30 am</t>
-  </si>
-  <si>
-    <t>Jan 22 2016 10:30AM</t>
-  </si>
-  <si>
-    <t>Primer receso</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>10:30 am - 12:00 pm</t>
-  </si>
-  <si>
-    <t>Jan 22 2016 12:00PM</t>
-  </si>
-  <si>
-    <t>Tercera Hora</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>12:00 pm - 1:30 pm</t>
-  </si>
-  <si>
-    <t>Jan 22 2016  1:30PM</t>
-  </si>
-  <si>
-    <t>Cuarta Hora</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1:30 pm - 3:00 pm</t>
-  </si>
-  <si>
-    <t>Jan 22 2016  3:00PM</t>
-  </si>
-  <si>
-    <t>Quinta Hora</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>3:00 pm - 4:30 pm</t>
-  </si>
-  <si>
-    <t>Jan 22 2016  4:30PM</t>
-  </si>
-  <si>
-    <t>Sexta Hora</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>4:30 pm - 5:00 pm</t>
-  </si>
-  <si>
-    <t>Jan 22 2016  5:00PM</t>
-  </si>
-  <si>
-    <t>Segundo receso</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>5:00 pm - 6:30 pm</t>
-  </si>
-  <si>
-    <t>Jan 22 2016  6:30PM</t>
-  </si>
-  <si>
-    <t>Septima hora</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>6:30 pm - 8:00 pm</t>
-  </si>
-  <si>
-    <t>Jan 22 2016  8:00PM</t>
-  </si>
-  <si>
-    <t>Octava Hora</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>8:00 pm - 9:30 pm</t>
-  </si>
-  <si>
-    <t>Jan 22 2016  9:30PM</t>
-  </si>
-  <si>
-    <t>Novena Hora</t>
   </si>
 </sst>
 </file>
@@ -543,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -569,226 +431,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/HOR_CAT_HORAS.xlsx
+++ b/Proyectos Personales/Universidad/Documentacion/Catalogos/Respaldo Catalogos/HOR_CAT_HORAS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="51">
   <si>
     <t>IDHORA</t>
   </si>
@@ -36,6 +36,141 @@
   </si>
   <si>
     <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>7:00am - 8:30am</t>
+  </si>
+  <si>
+    <t>Feb 17 2016  7:00AM</t>
+  </si>
+  <si>
+    <t>Feb 17 2016  8:30AM</t>
+  </si>
+  <si>
+    <t>Primera hora</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>8:30am - 10:00am</t>
+  </si>
+  <si>
+    <t>Feb 17 2016 10:00AM</t>
+  </si>
+  <si>
+    <t>Segunda Hora</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10:00am - 10:30m</t>
+  </si>
+  <si>
+    <t>Feb 17 2016 10:30AM</t>
+  </si>
+  <si>
+    <t>Primer reseso</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10:30am - 12:00am</t>
+  </si>
+  <si>
+    <t>Feb 17 2016 12:00PM</t>
+  </si>
+  <si>
+    <t>Tercera hora</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>12:00am - 1:30pm</t>
+  </si>
+  <si>
+    <t>Feb 17 2016  1:30PM</t>
+  </si>
+  <si>
+    <t>Cuarta Hora</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1:30pm - 3:00pm</t>
+  </si>
+  <si>
+    <t>Feb 17 2016  3:00PM</t>
+  </si>
+  <si>
+    <t>Quinta Hora</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3:00pm - 4:30pm</t>
+  </si>
+  <si>
+    <t>Feb 17 2016  4:30PM</t>
+  </si>
+  <si>
+    <t>Sexta hora</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>4:30pm - 6:00pm</t>
+  </si>
+  <si>
+    <t>Feb 17 2016  6:00PM</t>
+  </si>
+  <si>
+    <t>Septima Hora</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>6:00pm - 6:30pm</t>
+  </si>
+  <si>
+    <t>Feb 17 2016  6:30PM</t>
+  </si>
+  <si>
+    <t>Segundo descanso</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>6:30pm - 8:00pm</t>
+  </si>
+  <si>
+    <t>Feb 17 2016  8:00PM</t>
+  </si>
+  <si>
+    <t>Octava Hora</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>8:00pm a 9:30pm</t>
+  </si>
+  <si>
+    <t>Feb 17 2016  9:30PM</t>
+  </si>
+  <si>
+    <t>Novena Hora</t>
   </si>
 </sst>
 </file>
@@ -405,7 +540,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -431,6 +566,226 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
